--- a/WMM_All_configurations/MCBXFB_02_Inner_Iron_600_20210510/Roxie_vs_MM_SkewMCBXFB_02_Inner_Iron_600_20210510.xlsx
+++ b/WMM_All_configurations/MCBXFB_02_Inner_Iron_600_20210510/Roxie_vs_MM_SkewMCBXFB_02_Inner_Iron_600_20210510.xlsx
@@ -618,49 +618,49 @@
         <v>0.03764063677835036</v>
       </c>
       <c r="R2">
-        <v>-497.6175884846529</v>
+        <v>-506.7265263990728</v>
       </c>
       <c r="S2">
-        <v>-35.49676990371596</v>
+        <v>-36.26819966954229</v>
       </c>
       <c r="T2">
-        <v>-0.5511749856727004</v>
+        <v>-0.9698828417572424</v>
       </c>
       <c r="U2">
-        <v>0.02243173752019343</v>
+        <v>0.02509995865046097</v>
       </c>
       <c r="V2">
-        <v>0.0009359446517484</v>
+        <v>-0.04766639009244159</v>
       </c>
       <c r="W2">
-        <v>1.562854051901025E-05</v>
+        <v>0.005455193700233254</v>
       </c>
       <c r="X2">
-        <v>-4.403948502016872E-05</v>
+        <v>-0.02365414841562918</v>
       </c>
       <c r="Y2">
-        <v>9.342820676444622E-05</v>
+        <v>-0.01860716671230337</v>
       </c>
       <c r="Z2">
-        <v>-1.311767243695295E-05</v>
+        <v>-0.04074048993808185</v>
       </c>
       <c r="AA2">
-        <v>-2.617340709261447E-05</v>
+        <v>0.08111972467532483</v>
       </c>
       <c r="AB2">
-        <v>-1.679479674877968E-05</v>
+        <v>0.005526977671832082</v>
       </c>
       <c r="AC2">
-        <v>7.895885716803734E-05</v>
+        <v>0.0160868691478208</v>
       </c>
       <c r="AD2">
-        <v>-6.544990891683096E-05</v>
+        <v>-0.07235956285197402</v>
       </c>
       <c r="AE2">
-        <v>-1.553027554783002E-05</v>
+        <v>0.006584135528506257</v>
       </c>
       <c r="AF2">
-        <v>9.725893840857599E-05</v>
+        <v>-0.1011787126675776</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -716,49 +716,49 @@
         <v>0.03764063677835036</v>
       </c>
       <c r="R3">
-        <v>7.67525070317733</v>
+        <v>-227.365185202805</v>
       </c>
       <c r="S3">
-        <v>0.2200384039421385</v>
+        <v>-19.74355796644368</v>
       </c>
       <c r="T3">
-        <v>0.3701163566299385</v>
+        <v>-3.931883658503619</v>
       </c>
       <c r="U3">
-        <v>0.01172426600143563</v>
+        <v>0.1668804729245199</v>
       </c>
       <c r="V3">
-        <v>-0.03097054595902462</v>
+        <v>0.0507993524914901</v>
       </c>
       <c r="W3">
-        <v>-0.001542801749619831</v>
+        <v>-0.007036138791104213</v>
       </c>
       <c r="X3">
-        <v>0.0001133588043926519</v>
+        <v>-0.005296282186903855</v>
       </c>
       <c r="Y3">
-        <v>-0.0003558837034812994</v>
+        <v>-0.01230464106693177</v>
       </c>
       <c r="Z3">
-        <v>0.0009004933285837523</v>
+        <v>0.003152918567896873</v>
       </c>
       <c r="AA3">
-        <v>0.0002393655000189335</v>
+        <v>0.02145437210630252</v>
       </c>
       <c r="AB3">
-        <v>0.001353200563886865</v>
+        <v>0.002411604044184461</v>
       </c>
       <c r="AC3">
-        <v>-2.958994156897987E-05</v>
+        <v>-0.001497776909519523</v>
       </c>
       <c r="AD3">
-        <v>0.0002096717326334908</v>
+        <v>-0.004795516862897471</v>
       </c>
       <c r="AE3">
-        <v>0.0001364737638242914</v>
+        <v>0.006386182358791445</v>
       </c>
       <c r="AF3">
-        <v>0.001359545204168181</v>
+        <v>0.0005124172718750669</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -814,49 +814,49 @@
         <v>0.03764063677835036</v>
       </c>
       <c r="R4">
-        <v>0.52541622387531</v>
+        <v>0.6543114669707606</v>
       </c>
       <c r="S4">
-        <v>0.0190237336167198</v>
+        <v>0.01841955344801832</v>
       </c>
       <c r="T4">
-        <v>0.04348742472546936</v>
+        <v>0.04997780741549365</v>
       </c>
       <c r="U4">
-        <v>-0.001073255402054552</v>
+        <v>-0.0003998127625309534</v>
       </c>
       <c r="V4">
-        <v>-0.00277778958554729</v>
+        <v>-0.005685289958183402</v>
       </c>
       <c r="W4">
-        <v>-0.0001770350690754516</v>
+        <v>-0.0001588694580014182</v>
       </c>
       <c r="X4">
-        <v>-0.000437849805171803</v>
+        <v>-0.003134602381178558</v>
       </c>
       <c r="Y4">
-        <v>2.352284803400637E-07</v>
+        <v>-4.995518037629515E-06</v>
       </c>
       <c r="Z4">
-        <v>1.920421537371591E-05</v>
+        <v>0.002854967330332574</v>
       </c>
       <c r="AA4">
-        <v>8.323237690400282E-06</v>
+        <v>4.390874723644253E-06</v>
       </c>
       <c r="AB4">
-        <v>8.580410910379032E-07</v>
+        <v>-0.001539320870255615</v>
       </c>
       <c r="AC4">
-        <v>-7.782678002125398E-06</v>
+        <v>8.104266509614035E-07</v>
       </c>
       <c r="AD4">
-        <v>-4.604675876726885E-06</v>
+        <v>0.0006066464535303284</v>
       </c>
       <c r="AE4">
-        <v>-9.101133545873185E-06</v>
+        <v>-2.082798250929089E-06</v>
       </c>
       <c r="AF4">
-        <v>-2.925788168614948E-06</v>
+        <v>-0.0001603569647642223</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -912,49 +912,49 @@
         <v>0.03764063677835036</v>
       </c>
       <c r="R5">
-        <v>78.19058716783772</v>
+        <v>105.2800992812356</v>
       </c>
       <c r="S5">
-        <v>-0.008750009710775697</v>
+        <v>0.7832715440462812</v>
       </c>
       <c r="T5">
-        <v>-27.2736519680774</v>
+        <v>-8.240258121134568</v>
       </c>
       <c r="U5">
-        <v>-0.01012433964544529</v>
+        <v>-0.004149490925661859</v>
       </c>
       <c r="V5">
-        <v>1.602386069716012</v>
+        <v>-3.738582750049267</v>
       </c>
       <c r="W5">
-        <v>-0.0002132420410610696</v>
+        <v>-0.003592570794600292</v>
       </c>
       <c r="X5">
-        <v>-0.02175654114002334</v>
+        <v>-2.637583783252583</v>
       </c>
       <c r="Y5">
-        <v>3.855409295110368E-05</v>
+        <v>0.001450863138335099</v>
       </c>
       <c r="Z5">
-        <v>-1.402563523687012</v>
+        <v>-1.385926408769692</v>
       </c>
       <c r="AA5">
-        <v>0.000171992035716936</v>
+        <v>-0.0009994469405432607</v>
       </c>
       <c r="AB5">
-        <v>-0.6017826798286598</v>
+        <v>-0.8785102085623572</v>
       </c>
       <c r="AC5">
-        <v>-1.598039875436481E-05</v>
+        <v>-0.0003560227665888279</v>
       </c>
       <c r="AD5">
-        <v>-0.2200656936926098</v>
+        <v>-0.353241166349535</v>
       </c>
       <c r="AE5">
-        <v>0.0001016295808628068</v>
+        <v>-0.0002076459765332894</v>
       </c>
       <c r="AF5">
-        <v>-0.122219957520526</v>
+        <v>-0.1917896709063655</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1010,49 +1010,49 @@
         <v>0.03764063677835036</v>
       </c>
       <c r="R6">
-        <v>277.3698997585344</v>
+        <v>269.7823546950096</v>
       </c>
       <c r="S6">
-        <v>3.612787836704873</v>
+        <v>3.855652840467855</v>
       </c>
       <c r="T6">
-        <v>-0.2863604428173878</v>
+        <v>-0.5729623834209503</v>
       </c>
       <c r="U6">
-        <v>-0.00280889581643851</v>
+        <v>-0.0008179500907845318</v>
       </c>
       <c r="V6">
-        <v>0.0003115935039369233</v>
+        <v>-0.02233037482404465</v>
       </c>
       <c r="W6">
-        <v>-3.766569840296096E-06</v>
+        <v>-0.01318264973593808</v>
       </c>
       <c r="X6">
-        <v>1.944744008268754E-07</v>
+        <v>-0.0137540298274969</v>
       </c>
       <c r="Y6">
-        <v>1.469725381150352E-07</v>
+        <v>-6.425767928124116E-05</v>
       </c>
       <c r="Z6">
-        <v>-1.27817918913355E-06</v>
+        <v>-0.008907175013527993</v>
       </c>
       <c r="AA6">
-        <v>2.30111480588929E-06</v>
+        <v>0.01827174553327056</v>
       </c>
       <c r="AB6">
-        <v>-1.54489163189187E-06</v>
+        <v>-0.02700939565639115</v>
       </c>
       <c r="AC6">
-        <v>-1.879125046682375E-06</v>
+        <v>-0.007658160588164015</v>
       </c>
       <c r="AD6">
-        <v>1.696444560929289E-06</v>
+        <v>-0.024789631445696</v>
       </c>
       <c r="AE6">
-        <v>3.096187023263303E-06</v>
+        <v>-0.01352360735764606</v>
       </c>
       <c r="AF6">
-        <v>-5.155636373171673E-06</v>
+        <v>-0.002060793399062003</v>
       </c>
     </row>
   </sheetData>
